--- a/数据整理/stocks/A股/深证主板/002601-龙佰集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002601-龙佰集团.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1037,7 +1038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1048,17 +1049,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1068,13 +1089,597 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>183.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.5036</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>134.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.6444</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>139.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.5655</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>115.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.6278</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3158</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8103</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3268</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
       <c r="D2" t="n">
+        <v>50.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
         <v>54.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002601-龙佰集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002601-龙佰集团.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1626,7 +1627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1637,17 +1638,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1657,14 +1678,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50.42</v>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>149.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.0780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1673,13 +1716,499 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>139.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.0372</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.1929</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.2002</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6846</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6568</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4407</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华富中小板指数增强</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>14</v>
       </c>
       <c r="D3" t="n">
+        <v>50.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
         <v>54.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002601-龙佰集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002601-龙佰集团.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2139,7 +2140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2150,17 +2151,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2170,14 +2191,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>39.6</v>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.4780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2186,14 +2229,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50.42</v>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>116.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.1023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2202,13 +2267,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>119.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.5149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3277</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4623</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3837</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>14</v>
       </c>
       <c r="D4" t="n">
+        <v>50.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
         <v>54.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002601-龙佰集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002601-龙佰集团.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,583 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008903</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发科技先锋混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>192.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>17.1118</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005911</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发双擎升级混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>145.74</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>11.9070</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>162703</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发小盘成长混合(LOF)A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>120.98</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.83</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>10.6825</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002939</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发创新升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>121.88</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>10.1282</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003745</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发多元新兴股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>46.76</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>3.3340</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009086</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华价值共赢两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>22.73</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>65.24</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8137</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009314</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发双擎升级混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3807</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009132</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发小盘成长混合(LOF)C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.83</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2049</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>516220</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国泰中证细分化工产业主题ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>98.77</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0721</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003663</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华兴泰定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>21.01</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0631</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>710301</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富安达增强收益债券A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>20.37</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>710302</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富安达增强收益债券C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>20.37</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501307</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501308</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>54.73</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1040,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1101,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>183.91</t>
+          <t>161.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>95.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15.5036</t>
+          <t>10.4780</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1139,26 +653,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>134.23</t>
+          <t>116.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>92.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.93</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10.6444</t>
+          <t>7.1023</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1177,26 +691,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>139.02</t>
+          <t>119.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10.5655</t>
+          <t>6.5149</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1205,32 +719,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002939</t>
+          <t>003745</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发创新升级灵活配置混合</t>
+          <t>广发多元新兴股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>115.50</t>
+          <t>37.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.47</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>8.6278</t>
+          <t>2.3277</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1243,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003745</t>
+          <t>009086</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发多元新兴股票</t>
+          <t>鹏华价值共赢两年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45.36</t>
+          <t>14.96</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>85.18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.31</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.3158</t>
+          <t>0.4623</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1281,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009086</t>
+          <t>009132</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华价值共赢两年持有期混合</t>
+          <t>广发小盘成长混合(LOF)C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22.57</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>67.96</t>
+          <t>92.41</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8103</t>
+          <t>0.3837</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1329,292 +843,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.92</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3268</t>
+          <t>0.2365</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009132</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发小盘成长混合(LOF)C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2062</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159870</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华中证细分化工产业主题ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>96.61</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1893</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
         <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>012878</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0720</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>516120</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富国中证细分化工产业主题ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>99.09</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0650</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>012879</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0505</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009263</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>83.46</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0450</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010841</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>83.46</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2140,7 +1388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2201,26 +1449,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>161.20</t>
+          <t>183.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.19</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10.4780</t>
+          <t>15.5036</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2239,26 +1487,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>116.05</t>
+          <t>134.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>7.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>7.1023</t>
+          <t>10.6444</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2277,26 +1525,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>119.54</t>
+          <t>139.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6.5149</t>
+          <t>10.5655</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2305,32 +1553,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003745</t>
+          <t>002939</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发多元新兴股票</t>
+          <t>广发创新升级灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>37.91</t>
+          <t>115.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>94.82</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>7.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.3277</t>
+          <t>8.6278</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2343,36 +1591,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009086</t>
+          <t>003745</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华价值共赢两年持有期混合</t>
+          <t>广发多元新兴股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.96</t>
+          <t>45.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.18</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4623</t>
+          <t>3.3158</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2381,36 +1629,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009132</t>
+          <t>009086</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发小盘成长混合(LOF)C</t>
+          <t>鹏华价值共赢两年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>22.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>67.96</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3837</t>
+          <t>0.8103</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2429,26 +1677,292 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2365</t>
+          <t>0.3268</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2462,96 +1976,582 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>192.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.1118</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>145.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.9070</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>120.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.6825</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>121.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.1282</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3340</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8137</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3807</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
-        <v>27.51</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2049</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D3" t="n">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50.42</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>54.73</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002601-龙佰集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002601-龙佰集团.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>27.51</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>39.6</v>
+        <v>27.51</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>50.42</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>14</v>
       </c>
       <c r="D5" t="n">
+        <v>50.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
         <v>54.73</v>
       </c>
     </row>
@@ -549,6 +566,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>134.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.6708</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5110</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3637</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012272</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>渤海汇金创新价值一年持有期混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015225</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015226</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -870,7 +1247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1382,7 +1759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1970,7 +2347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002601-龙佰集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002601-龙佰集团.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>12.83</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>27.51</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>39.6</v>
+        <v>27.51</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>50.42</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>14</v>
       </c>
       <c r="D6" t="n">
+        <v>50.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
         <v>54.73</v>
       </c>
     </row>
@@ -566,6 +583,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>129.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3935</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>96.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.7203</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8174</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4366</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012272</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>渤海汇金创新价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003780</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华兴悦定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003142</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>39.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014408</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信兴选产业趋势一年封闭混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>50.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014409</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信兴选产业趋势一年封闭混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>50.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516690</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003143</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013527</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015897</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015896</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013528</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -925,7 +1796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1247,7 +2118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1759,7 +2630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2347,7 +3218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
